--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Shen\Source\Repos\hw13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F823DAFD-708B-45B5-9468-5BBFC8D692C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE71E10-FDCA-49D2-934B-C26B36584E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{CAB50320-6CAA-4C06-BDB0-2ED3F0AC296B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +402,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,37 +412,37 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <f ca="1">_xll.XLL.PWLINEAR.VALUE(A1:A6,B1:B6,C1:C6,D1:D6,E1:E6,4.1)</f>
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -449,70 +450,70 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
